--- a/2017年/1225/12月工作规划表格.xlsx
+++ b/2017年/1225/12月工作规划表格.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
   <si>
     <t>序号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -29,10 +29,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>负责人</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优先级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -45,71 +41,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>添加模块编辑器改版调整及调研</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>编辑器面板调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>各个模块的编辑器调整</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙、设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>优先级1-5，数字越小优先级越大</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>上周已经完成，进入测试阶段，预计本周内更新</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技术已经完成调整，进入测试阶段，</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>精品模板（服装、汽车汽配）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>完成本周精品模板设计6个</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>云指主站功能拆分分析脑图</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>龙</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>本周对整个主站的功能进行分解，并进行优化</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些新收集的模块设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>设计</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对新收集的一批模块进行设计（6个）</t>
+    <t>单页滚屏页面</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0108完成需求及文档输出、完成编辑器面板设计，0112完成技术实现，0117完成测试并上线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新样式导航模块3款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>新样式在线客服模块3款</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>已完成初步数据收集筛选，0109完成设计，预计本周完成开发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些需求、BUG的调整</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -168,7 +124,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -179,17 +135,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -471,30 +430,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I16" sqref="I15:J16"/>
+      <selection sqref="A1:E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="31" customWidth="1"/>
-    <col min="3" max="3" width="10.875" customWidth="1"/>
-    <col min="5" max="5" width="65.875" customWidth="1"/>
+    <col min="4" max="4" width="65.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
-      <c r="F1" s="4"/>
-    </row>
-    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A1" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -510,133 +467,94 @@
       <c r="E2" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" ht="28.5" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" s="2">
-        <v>3</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="2">
+        <v>2</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="2">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="F5" s="5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C5" s="2">
+        <v>2</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="D6" s="2">
-        <v>2</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="C6" s="2">
+        <v>3</v>
+      </c>
+      <c r="D6" s="2"/>
+      <c r="E6" s="4">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="D7" s="2">
-        <v>3</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A8" s="6">
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="4"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="5">
         <v>6</v>
       </c>
-      <c r="B8" s="6" t="s">
-        <v>20</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8" s="6">
-        <v>2</v>
-      </c>
-      <c r="E8" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="F8" s="7">
-        <v>0.2</v>
-      </c>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A1:E1"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
